--- a/AFAS.Static/Template/测评数据导入模板.xlsx
+++ b/AFAS.Static/Template/测评数据导入模板.xlsx
@@ -5,27 +5,36 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\009Code\AFAS_API\AFAS.Static\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AFAS\AFAS_API\AFAS.Static\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5EF66C-1DF4-4437-86B3-D557C804CF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2874D3B-7773-4C6F-B4A0-82E13DD72A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6060" yWindow="2295" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="41">
   <si>
     <t>年龄</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>方老师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>视觉转移</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,38 +76,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Jack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jim</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大班</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>二年级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Jons</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tony</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三年级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,6 +161,38 @@
   </si>
   <si>
     <t>测评标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测评版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小学版(A)</t>
+  </si>
+  <si>
+    <t>小学版(B)</t>
+  </si>
+  <si>
+    <t>严逸灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>严健城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林晨涵</t>
+  </si>
+  <si>
+    <t>王语瑄</t>
+  </si>
+  <si>
+    <t>肖儒亿</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄晨艳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -187,7 +200,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +216,24 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -221,21 +255,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{75A11D01-9E62-4E6D-866D-A263BE2E5F9D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -513,318 +551,471 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="14.125" customWidth="1"/>
-    <col min="17" max="17" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="14.125" customWidth="1"/>
+    <col min="18" max="18" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
+      <c r="T1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <v>44418</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2">
+        <v>36.5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2">
+        <v>47.407407407407412</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="2">
+        <v>45</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="2">
+        <v>55</v>
+      </c>
+      <c r="N2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="2">
+        <v>25</v>
+      </c>
+      <c r="P2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>-18</v>
+      </c>
+      <c r="R2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="2">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" s="2">
+        <v>40</v>
+      </c>
+      <c r="V2" t="s">
+        <v>4</v>
+      </c>
+      <c r="W2" t="s">
+        <v>15</v>
+      </c>
+      <c r="X2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1">
+        <v>44419</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2">
+        <v>51</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2">
+        <v>65.084745762711862</v>
+      </c>
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2">
+        <v>75</v>
+      </c>
+      <c r="L3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="2">
+        <v>55</v>
+      </c>
+      <c r="N3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="2">
+        <v>62.5</v>
+      </c>
+      <c r="P3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="R3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="2">
+        <v>65</v>
+      </c>
+      <c r="T3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3" s="2">
+        <v>60</v>
+      </c>
+      <c r="V3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1">
+        <v>44420</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2">
+        <v>64</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="2">
+        <v>56.470588235294116</v>
+      </c>
+      <c r="J4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="2">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="2">
+        <v>50</v>
+      </c>
+      <c r="N4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="2">
+        <v>37.692307692307693</v>
+      </c>
+      <c r="P4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>55</v>
+      </c>
+      <c r="R4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4" s="2">
+        <v>105</v>
+      </c>
+      <c r="T4" t="s">
+        <v>4</v>
+      </c>
+      <c r="U4" s="2">
+        <v>60</v>
+      </c>
+      <c r="V4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W4" t="s">
+        <v>5</v>
+      </c>
+      <c r="X4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>44421</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2">
+        <v>53.333333333333329</v>
+      </c>
+      <c r="J5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="2">
+        <v>60</v>
+      </c>
+      <c r="L5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="2">
+        <v>80</v>
+      </c>
+      <c r="N5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="2">
+        <v>94</v>
+      </c>
+      <c r="P5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>70</v>
+      </c>
+      <c r="R5" t="s">
+        <v>4</v>
+      </c>
+      <c r="S5" s="2">
+        <v>85</v>
+      </c>
+      <c r="T5" t="s">
+        <v>4</v>
+      </c>
+      <c r="U5" s="2">
+        <v>80</v>
+      </c>
+      <c r="V5" t="s">
+        <v>4</v>
+      </c>
+      <c r="W5" t="s">
+        <v>5</v>
+      </c>
+      <c r="X5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1">
+        <v>44422</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2">
+        <v>60.314136125654457</v>
+      </c>
+      <c r="J6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="2">
+        <v>61</v>
+      </c>
+      <c r="L6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="2">
+        <v>60</v>
+      </c>
+      <c r="N6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="2">
+        <v>50</v>
+      </c>
+      <c r="P6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="2">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U1" t="s">
-        <v>10</v>
-      </c>
-      <c r="V1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1">
-        <v>44418</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>35</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2">
+      <c r="R6" t="s">
+        <v>4</v>
+      </c>
+      <c r="S6" s="2">
         <v>45</v>
       </c>
-      <c r="J2">
-        <v>45</v>
-      </c>
-      <c r="P2">
-        <v>45</v>
-      </c>
-      <c r="R2">
-        <v>45</v>
-      </c>
-      <c r="T2">
-        <v>45</v>
-      </c>
-      <c r="V2" t="s">
-        <v>22</v>
-      </c>
-      <c r="W2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1">
-        <v>44419</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>9</v>
-      </c>
-      <c r="F3">
+      <c r="T6" t="s">
+        <v>4</v>
+      </c>
+      <c r="U6" s="2">
+        <v>60</v>
+      </c>
+      <c r="V6" t="s">
+        <v>4</v>
+      </c>
+      <c r="W6" t="s">
+        <v>5</v>
+      </c>
+      <c r="X6" t="s">
         <v>40</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3">
-        <v>50</v>
-      </c>
-      <c r="J3">
-        <v>50</v>
-      </c>
-      <c r="P3">
-        <v>50</v>
-      </c>
-      <c r="R3">
-        <v>65</v>
-      </c>
-      <c r="T3">
-        <v>70</v>
-      </c>
-      <c r="V3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1">
-        <v>44420</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>45</v>
-      </c>
-      <c r="G4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4">
-        <v>60</v>
-      </c>
-      <c r="J4">
-        <v>55</v>
-      </c>
-      <c r="P4">
-        <v>55</v>
-      </c>
-      <c r="R4">
-        <v>55</v>
-      </c>
-      <c r="T4">
-        <v>55</v>
-      </c>
-      <c r="V4" t="s">
-        <v>5</v>
-      </c>
-      <c r="W4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1">
-        <v>44421</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>11</v>
-      </c>
-      <c r="F5">
-        <v>50</v>
-      </c>
-      <c r="G5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5">
-        <v>61</v>
-      </c>
-      <c r="J5">
-        <v>60</v>
-      </c>
-      <c r="P5">
-        <v>55</v>
-      </c>
-      <c r="R5">
-        <v>60</v>
-      </c>
-      <c r="T5">
-        <v>60</v>
-      </c>
-      <c r="V5" t="s">
-        <v>5</v>
-      </c>
-      <c r="W5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1">
-        <v>44422</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>12</v>
-      </c>
-      <c r="F6">
-        <v>55</v>
-      </c>
-      <c r="G6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6">
-        <v>65</v>
-      </c>
-      <c r="J6">
-        <v>70</v>
-      </c>
-      <c r="P6">
-        <v>46</v>
-      </c>
-      <c r="R6">
-        <v>65</v>
-      </c>
-      <c r="T6">
-        <v>70</v>
-      </c>
-      <c r="V6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W6" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
